--- a/Data/Matching_LWR_data/Siganus_fuscescens_restricted.xlsx
+++ b/Data/Matching_LWR_data/Siganus_fuscescens_restricted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabes\Documents\AlbatrossPhillipinesLWR\Albatross_Raw_Data\Matching_LWR_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabes\Documents\AlbatrossPhillipinesLWR\Data\Matching_LWR_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E34001-E33D-454D-90E8-EC52F3F9E62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA856352-3BE3-4926-ACC7-3CB5C2C97B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4650" yWindow="2250" windowWidth="16515" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -409,7 +409,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="E2" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,11 +467,11 @@
         <v>79.900000000000006</v>
       </c>
       <c r="G2" s="1">
-        <f>E2/10</f>
+        <f t="shared" ref="G2:H6" si="0">E2/10</f>
         <v>6.43</v>
       </c>
       <c r="H2" s="1">
-        <f>F2/10</f>
+        <f t="shared" si="0"/>
         <v>7.99</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -501,11 +501,11 @@
         <v>87.6</v>
       </c>
       <c r="G3" s="1">
-        <f>E3/10</f>
+        <f t="shared" si="0"/>
         <v>6.95</v>
       </c>
       <c r="H3" s="1">
-        <f>F3/10</f>
+        <f t="shared" si="0"/>
         <v>8.76</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -535,11 +535,11 @@
         <v>88.6</v>
       </c>
       <c r="G4" s="1">
-        <f>E4/10</f>
+        <f t="shared" si="0"/>
         <v>7.19</v>
       </c>
       <c r="H4" s="1">
-        <f>F4/10</f>
+        <f t="shared" si="0"/>
         <v>8.86</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -569,11 +569,11 @@
         <v>91.9</v>
       </c>
       <c r="G5" s="1">
-        <f>E5/10</f>
+        <f t="shared" si="0"/>
         <v>7.3</v>
       </c>
       <c r="H5" s="1">
-        <f>F5/10</f>
+        <f t="shared" si="0"/>
         <v>9.1900000000000013</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -603,11 +603,11 @@
         <v>101</v>
       </c>
       <c r="G6" s="1">
-        <f>E6/10</f>
+        <f t="shared" si="0"/>
         <v>7.95</v>
       </c>
       <c r="H6" s="1">
-        <f>F6/10</f>
+        <f t="shared" si="0"/>
         <v>10.1</v>
       </c>
       <c r="I6" s="1" t="s">
